--- a/Output/positivity_analysis_table.xlsx
+++ b/Output/positivity_analysis_table.xlsx
@@ -43,7 +43,7 @@
     <t>2000-2009</t>
   </si>
   <si>
-    <t>&gt;2010</t>
+    <t>2010+</t>
   </si>
   <si>
     <t>66.9%</t>
